--- a/Relationship Table Dist.xlsx
+++ b/Relationship Table Dist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28922"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://logesyssol-my.sharepoint.com/personal/sandhya_s_logesys_com/Documents/Projects/AutoInsight-AWS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="8_{D5064FDE-433B-4EFE-BAE1-02727FBED6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64C1DB1F-C311-41D2-8EF5-ABA41123A339}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="8_{D5064FDE-433B-4EFE-BAE1-02727FBED6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3B18D8D-7567-4E0D-8BDA-3180B688B506}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="0" windowWidth="19180" windowHeight="10200" xr2:uid="{4F91CCCF-6B87-4F07-8692-78F7830FBDF4}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,19 +452,20 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -504,7 +505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -524,7 +525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -544,7 +545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -564,7 +565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -584,7 +585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -604,7 +605,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -624,7 +625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -644,7 +645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -664,7 +665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -685,23 +686,23 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="15.95">
       <c r="F12" s="3"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9">
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9">
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9">
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9">
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="9:9">
       <c r="I17" s="2"/>
     </row>
   </sheetData>

--- a/Relationship Table Dist.xlsx
+++ b/Relationship Table Dist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28922"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://logesyssol-my.sharepoint.com/personal/sandhya_s_logesys_com/Documents/Projects/AutoInsight-AWS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://logesyssol-my.sharepoint.com/personal/sandhya_s_logesys_com/Documents/Projects/AutoInsights-InsightsStories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="8_{D5064FDE-433B-4EFE-BAE1-02727FBED6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3B18D8D-7567-4E0D-8BDA-3180B688B506}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="8_{D5064FDE-433B-4EFE-BAE1-02727FBED6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD95B02C-2E40-4D68-AFF8-54DD6F70F458}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="0" windowWidth="19180" windowHeight="10200" xr2:uid="{4F91CCCF-6B87-4F07-8692-78F7830FBDF4}"/>
   </bookViews>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -87,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,20 +441,20 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.1796875" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" customWidth="1"/>
+    <col min="4" max="4" width="29.453125" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,7 +474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -505,7 +494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -525,7 +514,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -545,7 +534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -565,7 +554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -585,7 +574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -605,7 +594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -625,7 +614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -645,7 +634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -665,7 +654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -686,23 +675,23 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="15.95">
+    <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.4">
       <c r="F12" s="3"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="9:9">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I17" s="2"/>
     </row>
   </sheetData>
